--- a/Udemy Course Content/Excel Essentials for the Real World (Complete Excel Course)/S6_Excel_Functions_START.xlsx
+++ b/Udemy Course Content/Excel Essentials for the Real World (Complete Excel Course)/S6_Excel_Functions_START.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22105"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a60237486963a246/Udemy/1_Courses/ExcelBasics/2_Basics Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rivashan Govender\Documents\Rivashan_Govender\Udemy Course Content\Excel Essentials for the Real World (Complete Excel Course)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{3EED3E12-7C2E-4108-9A15-6D33E8DABC77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{948AAF74-5BE1-4E09-ACC2-D9E0C6FA2C5E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7809F217-1B55-4C95-9374-20A2AAE62675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="11" r:id="rId1"/>
@@ -50,30 +50,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Leila Gharani</author>
-  </authors>
-  <commentList>
-    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{541A73EA-55C3-4842-8F06-556FA8D1D74F}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">After writing the first formula - change this to "missing" to see how the formula results update.
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
 <metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
@@ -97,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="202">
   <si>
     <t>Link</t>
   </si>
@@ -710,12 +686,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,12 +762,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -901,10 +871,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -925,7 +895,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -941,7 +911,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -969,15 +939,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="7" applyBorder="1" applyAlignment="1">
@@ -992,10 +962,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="8">
@@ -1008,244 +975,13 @@
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="4">
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
         <color theme="9" tint="-0.24994659260841701"/>
       </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFAFAF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1395,8 +1131,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8058367" y="791585"/>
-          <a:ext cx="2379302" cy="696690"/>
+          <a:off x="7912605" y="804573"/>
+          <a:ext cx="2266734" cy="703907"/>
           <a:chOff x="1952625" y="8061259"/>
           <a:chExt cx="2152650" cy="920817"/>
         </a:xfrm>
@@ -1786,8 +1522,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7596190" y="2605088"/>
-          <a:ext cx="2781298" cy="809625"/>
+          <a:off x="7334252" y="2644775"/>
+          <a:ext cx="2628898" cy="825500"/>
           <a:chOff x="5928327" y="-76200"/>
           <a:chExt cx="3450092" cy="857250"/>
         </a:xfrm>
@@ -1990,7 +1726,7 @@
           <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1071BBA-436B-4F7F-9A10-5EC86C64664A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2092,8 +1828,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2798723" y="1914526"/>
-          <a:ext cx="2811502" cy="1190624"/>
+          <a:off x="2746335" y="2130426"/>
+          <a:ext cx="2740065" cy="1209674"/>
           <a:chOff x="6387569" y="-466724"/>
           <a:chExt cx="2990850" cy="1247774"/>
         </a:xfrm>
@@ -2297,8 +2033,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3193371" y="642937"/>
-          <a:ext cx="2102530" cy="714376"/>
+          <a:off x="3145746" y="657224"/>
+          <a:ext cx="2039030" cy="727076"/>
           <a:chOff x="5952742" y="-57150"/>
           <a:chExt cx="2900354" cy="857250"/>
         </a:xfrm>
@@ -2588,8 +2324,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1745037" y="2462213"/>
-          <a:ext cx="2184027" cy="1285875"/>
+          <a:off x="1714874" y="2501900"/>
+          <a:ext cx="2133227" cy="1308100"/>
           <a:chOff x="6048375" y="-95249"/>
           <a:chExt cx="3005245" cy="950285"/>
         </a:xfrm>
@@ -2782,11 +2518,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
+          <xdr:colOff>965200</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -2837,14 +2573,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-ZA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2868,11 +2604,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>2</xdr:row>
-          <xdr:rowOff>66675</xdr:rowOff>
+          <xdr:rowOff>69850</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
+          <xdr:colOff>965200</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
@@ -2923,14 +2659,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-ZA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -2954,11 +2690,11 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>104775</xdr:rowOff>
+          <xdr:rowOff>107950</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
+          <xdr:colOff>965200</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>152400</xdr:rowOff>
         </xdr:to>
@@ -3009,14 +2745,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-ZA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3059,8 +2795,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7681628" y="2849602"/>
-          <a:ext cx="3019710" cy="1255672"/>
+          <a:off x="7503828" y="2886115"/>
+          <a:ext cx="2840322" cy="1279484"/>
           <a:chOff x="7224428" y="2959140"/>
           <a:chExt cx="2795872" cy="1317584"/>
         </a:xfrm>
@@ -3251,13 +2987,13 @@
           <xdr:col>7</xdr:col>
           <xdr:colOff>133350</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>962025</xdr:colOff>
+          <xdr:colOff>965200</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>123825</xdr:rowOff>
+          <xdr:rowOff>127000</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3306,14 +3042,14 @@
             </a:extLst>
           </xdr:spPr>
           <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="50292" rIns="0" bIns="50292" anchor="ctr" upright="1"/>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="0" bIns="32004" anchor="ctr" upright="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr algn="l" rtl="0">
                 <a:defRPr sz="1000"/>
               </a:pPr>
               <a:r>
-                <a:rPr lang="de-AT" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:rPr lang="en-ZA" sz="800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:srgbClr val="000000"/>
                   </a:solidFill>
@@ -3633,28 +3369,28 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF2981B9"/>
   </sheetPr>
-  <dimension ref="A1:XFC121"/>
+  <dimension ref="A1:XFC20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.25" zeroHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.5" zeroHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="1.73046875" customWidth="1"/>
-    <col min="2" max="2" width="1.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="1.7265625" customWidth="1"/>
+    <col min="2" max="2" width="1.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
     <col min="4" max="4" width="37" customWidth="1"/>
     <col min="5" max="5" width="2" customWidth="1"/>
-    <col min="6" max="6" width="23.3984375" customWidth="1"/>
-    <col min="7" max="7" width="30.73046875" customWidth="1"/>
-    <col min="8" max="8" width="6.86328125" customWidth="1"/>
+    <col min="6" max="6" width="23.36328125" customWidth="1"/>
+    <col min="7" max="7" width="30.7265625" customWidth="1"/>
+    <col min="8" max="8" width="6.81640625" customWidth="1"/>
     <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
-    <col min="11" max="16383" width="9.1328125" hidden="1"/>
-    <col min="16384" max="16384" width="0.1328125" customWidth="1"/>
+    <col min="11" max="16383" width="9.08984375" hidden="1"/>
+    <col min="16384" max="16384" width="8.984375E-2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="5.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16"/>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -3664,7 +3400,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="19" t="s">
@@ -3676,10 +3412,10 @@
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="56" t="s">
         <v>201</v>
       </c>
       <c r="D3" s="3"/>
@@ -3688,8 +3424,8 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45"/>
-    <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="C5" s="11" t="s">
         <v>0</v>
       </c>
@@ -3704,7 +3440,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="52" t="s">
@@ -3720,7 +3456,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="52" t="s">
@@ -3736,7 +3472,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="52" t="s">
@@ -3752,7 +3488,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="52" t="s">
@@ -3768,7 +3504,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="52" t="s">
@@ -3784,7 +3520,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="52" t="s">
@@ -3800,7 +3536,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="52" t="s">
@@ -3816,7 +3552,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="52" t="s">
@@ -3832,7 +3568,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="52" t="s">
@@ -3848,7 +3584,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="52" t="s">
@@ -3864,7 +3600,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="52" t="s">
@@ -3880,7 +3616,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="51" t="s">
@@ -3896,11 +3632,11 @@
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C18" s="13"/>
       <c r="D18" s="12"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3910,7 +3646,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3920,238 +3656,16 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="33" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="34" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="35" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="36" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="37" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="38" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="39" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="40" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="41" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="42" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="43" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="44" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="45" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="46" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="47" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="48" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.45"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.45"/>
   </sheetData>
-  <conditionalFormatting sqref="D6:F6">
-    <cfRule type="expression" dxfId="36" priority="37">
+  <conditionalFormatting sqref="D6:F17">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F6="Done &amp; Understood"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="35" priority="38">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$F6="Done but needs practice"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="39">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$F6="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:F7">
-    <cfRule type="expression" dxfId="33" priority="31">
-      <formula>$F7="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="32" priority="32">
-      <formula>$F7="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>$F7="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D8:F8">
-    <cfRule type="expression" dxfId="30" priority="28">
-      <formula>$F8="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="29" priority="29">
-      <formula>$F8="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>$F8="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D9:F9">
-    <cfRule type="expression" dxfId="27" priority="25">
-      <formula>$F9="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="26" priority="26">
-      <formula>$F9="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
-      <formula>$F9="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:F10">
-    <cfRule type="expression" dxfId="24" priority="22">
-      <formula>$F10="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="23">
-      <formula>$F10="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>$F10="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D11:F11">
-    <cfRule type="expression" dxfId="21" priority="19">
-      <formula>$F11="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="20" priority="20">
-      <formula>$F11="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>$F11="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D12:F12">
-    <cfRule type="expression" dxfId="18" priority="16">
-      <formula>$F12="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="17">
-      <formula>$F12="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>$F12="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:F13">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>$F13="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="14" priority="14">
-      <formula>$F13="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>$F13="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D14:F14">
-    <cfRule type="expression" dxfId="12" priority="10">
-      <formula>$F14="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="11">
-      <formula>$F14="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$F14="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:F15">
-    <cfRule type="expression" dxfId="9" priority="7">
-      <formula>$F15="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="8">
-      <formula>$F15="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>$F15="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:F16">
-    <cfRule type="expression" dxfId="6" priority="4">
-      <formula>$F16="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="5">
-      <formula>$F16="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>$F16="Review Later"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D17:F17">
-    <cfRule type="expression" dxfId="3" priority="1">
-      <formula>$F17="Done &amp; Understood"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2">
-      <formula>$F17="Done but needs practice"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$F17="Review Later"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -4187,15 +3701,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" customWidth="1"/>
-    <col min="4" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>143</v>
       </c>
@@ -4205,7 +3719,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -4219,7 +3733,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4232,7 +3746,7 @@
       <c r="D5" s="15"/>
       <c r="E5" s="40"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4245,7 +3759,7 @@
       <c r="D6" s="15"/>
       <c r="E6" s="40"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4258,7 +3772,7 @@
       <c r="D7" s="15"/>
       <c r="E7" s="40"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4271,7 +3785,7 @@
       <c r="D8" s="15"/>
       <c r="E8" s="40"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4284,7 +3798,7 @@
       <c r="D9" s="15"/>
       <c r="E9" s="40"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4297,7 +3811,7 @@
       <c r="D10" s="15"/>
       <c r="E10" s="40"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4310,7 +3824,7 @@
       <c r="D11" s="15"/>
       <c r="E11" s="40"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4335,18 +3849,18 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" customWidth="1"/>
-    <col min="4" max="4" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6328125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="17.1328125" customWidth="1"/>
-    <col min="7" max="7" width="21.59765625" customWidth="1"/>
+    <col min="6" max="6" width="17.08984375" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>172</v>
       </c>
@@ -4356,12 +3870,12 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F3" s="23">
         <v>39083</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -4381,7 +3895,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4394,10 +3908,9 @@
       <c r="D5" s="5">
         <v>57400</v>
       </c>
-      <c r="E5" s="57"/>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E5" s="55"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4410,10 +3923,9 @@
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="56"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E6" s="55"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4426,10 +3938,9 @@
       <c r="D7" s="5">
         <v>29906</v>
       </c>
-      <c r="E7" s="57"/>
-      <c r="F7" s="56"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E7" s="55"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4442,10 +3953,9 @@
       <c r="D8" s="5">
         <v>92658</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="56"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E8" s="55"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4458,10 +3968,9 @@
       <c r="D9" s="5">
         <v>127000</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="56"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E9" s="55"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4474,10 +3983,9 @@
       <c r="D10" s="5">
         <v>34433</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="56"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E10" s="55"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4490,10 +3998,9 @@
       <c r="D11" s="5">
         <v>134468</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E11" s="55"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4504,14 +4011,9 @@
         <v>45000</v>
       </c>
       <c r="D12" s="5"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="56"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="E12" s="55"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
         <v>147</v>
       </c>
@@ -4521,12 +4023,12 @@
       <c r="E15" s="42"/>
       <c r="F15" s="42"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="28" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20" t="s">
         <v>153</v>
       </c>
@@ -4543,17 +4045,17 @@
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B23" s="37" t="s">
         <v>162</v>
       </c>
@@ -4561,7 +4063,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="20" t="s">
         <v>153</v>
       </c>
@@ -4572,25 +4074,25 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>-1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="28"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -4598,7 +4100,7 @@
         <v>39083</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="20" t="s">
         <v>41</v>
       </c>
@@ -4615,93 +4117,69 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
       <c r="B32" s="6">
         <v>38961</v>
       </c>
-      <c r="C32" s="58"/>
-      <c r="D32" s="58"/>
-      <c r="E32" s="58"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="6">
         <v>40148</v>
       </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58"/>
-      <c r="E33" s="58"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>7</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="58"/>
-      <c r="E34" s="58"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>21</v>
       </c>
       <c r="B35" s="6">
         <v>38353</v>
       </c>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="6">
         <v>40787</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" s="6">
         <v>38353</v>
       </c>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="58"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>23</v>
       </c>
       <c r="B38" s="6">
         <v>42795</v>
       </c>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="58"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>24</v>
       </c>
       <c r="B39" s="6">
         <v>43497</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F29:F33">
@@ -4720,15 +4198,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" customWidth="1"/>
-    <col min="4" max="5" width="10.59765625" customWidth="1"/>
+    <col min="1" max="1" width="17.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="5" width="10.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>173</v>
       </c>
@@ -4738,7 +4216,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -4752,7 +4230,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4761,7 +4239,7 @@
       </c>
       <c r="D5" s="40"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4770,7 +4248,7 @@
       </c>
       <c r="D6" s="40"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4779,7 +4257,7 @@
       </c>
       <c r="D7" s="40"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4788,7 +4266,7 @@
       </c>
       <c r="D8" s="40"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4797,7 +4275,7 @@
       </c>
       <c r="D9" s="40"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4806,7 +4284,7 @@
       </c>
       <c r="D10" s="40"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4815,7 +4293,7 @@
       </c>
       <c r="D11" s="40"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -4824,7 +4302,7 @@
       </c>
       <c r="D12" s="40"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>171</v>
       </c>
@@ -4845,17 +4323,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="17.59765625" customWidth="1"/>
-    <col min="2" max="2" width="13.86328125" customWidth="1"/>
-    <col min="3" max="3" width="16.59765625" customWidth="1"/>
-    <col min="4" max="4" width="3.265625" customWidth="1"/>
-    <col min="5" max="5" width="4.86328125" customWidth="1"/>
-    <col min="6" max="6" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="4" max="4" width="3.26953125" customWidth="1"/>
+    <col min="5" max="5" width="4.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="34" t="s">
         <v>181</v>
       </c>
@@ -4865,7 +4343,7 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -4873,7 +4351,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="21" t="s">
         <v>41</v>
       </c>
@@ -4890,7 +4368,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -4907,7 +4385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -4924,7 +4402,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -4941,7 +4419,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -4958,7 +4436,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -4975,7 +4453,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -4986,7 +4464,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -4997,7 +4475,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -5008,7 +4486,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -5019,7 +4497,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -5030,7 +4508,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -5041,7 +4519,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -5052,7 +4530,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -5063,7 +4541,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -5074,7 +4552,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -5085,7 +4563,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -5096,7 +4574,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -5107,7 +4585,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -5118,7 +4596,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -5129,7 +4607,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -5140,7 +4618,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -5151,7 +4629,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -5162,7 +4640,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -5173,7 +4651,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -5184,7 +4662,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -5195,7 +4673,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -5206,7 +4684,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -5217,7 +4695,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -5228,7 +4706,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -5239,7 +4717,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -5250,7 +4728,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -5275,19 +4753,19 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="15.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.73046875" customWidth="1"/>
-    <col min="7" max="7" width="13.73046875" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" customWidth="1"/>
-    <col min="16" max="16" width="17.73046875" customWidth="1"/>
+    <col min="2" max="2" width="15.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" customWidth="1"/>
+    <col min="16" max="16" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>196</v>
       </c>
@@ -5304,12 +4782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="L2" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="49">
         <v>1</v>
       </c>
@@ -5329,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="49">
         <v>2</v>
       </c>
@@ -5348,7 +4826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A5" s="49">
         <v>3</v>
       </c>
@@ -5367,7 +4845,7 @@
       </c>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="49">
         <v>4</v>
       </c>
@@ -5375,12 +4853,12 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:12" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="20" t="s">
         <v>41</v>
       </c>
@@ -5391,7 +4869,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -5403,7 +4881,7 @@
       </c>
       <c r="G9" s="47"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -5411,7 +4889,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5419,7 +4897,7 @@
         <v>134470</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5433,7 +4911,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -5446,7 +4924,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="46"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -5459,7 +4937,7 @@
       <c r="G14" s="48"/>
       <c r="H14" s="46"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5472,7 +4950,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="46"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -5480,7 +4958,7 @@
         <v>46050</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -5488,7 +4966,7 @@
         <v>60270</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -5496,7 +4974,7 @@
         <v>39630</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>24</v>
       </c>
@@ -5504,7 +4982,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -5512,7 +4990,7 @@
         <v>73820</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -5520,7 +4998,7 @@
         <v>45430</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -5528,7 +5006,7 @@
         <v>29730</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -5536,7 +5014,7 @@
         <v>50550</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -5544,7 +5022,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>32</v>
       </c>
@@ -5552,7 +5030,7 @@
         <v>46410</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -5562,7 +5040,7 @@
       <c r="F26" s="6"/>
       <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -5572,7 +5050,7 @@
       <c r="F27" s="6"/>
       <c r="G27" s="5"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>33</v>
       </c>
@@ -5582,7 +5060,7 @@
       <c r="F28" s="6"/>
       <c r="G28" s="5"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>37</v>
       </c>
@@ -5592,7 +5070,7 @@
       <c r="F29" s="6"/>
       <c r="G29" s="5"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -5602,7 +5080,7 @@
       <c r="F30" s="6"/>
       <c r="G30" s="5"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>31</v>
       </c>
@@ -5612,7 +5090,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="5"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>40</v>
       </c>
@@ -5622,7 +5100,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -5632,7 +5110,7 @@
       <c r="F33" s="6"/>
       <c r="G33" s="5"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>25</v>
       </c>
@@ -5642,7 +5120,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>11</v>
       </c>
@@ -5652,7 +5130,7 @@
       <c r="F35" s="6"/>
       <c r="G35" s="5"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -5662,7 +5140,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="5"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -5672,7 +5150,7 @@
       <c r="F37" s="6"/>
       <c r="G37" s="5"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -5682,7 +5160,7 @@
       <c r="F38" s="6"/>
       <c r="G38" s="5"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>36</v>
       </c>
@@ -5692,71 +5170,71 @@
       <c r="F39" s="6"/>
       <c r="G39" s="5"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F40" s="6"/>
       <c r="G40" s="5"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F41" s="6"/>
       <c r="G41" s="5"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F42" s="6"/>
       <c r="G42" s="5"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F43" s="6"/>
       <c r="G43" s="5"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F44" s="6"/>
       <c r="G44" s="5"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F45" s="6"/>
       <c r="G45" s="5"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F46" s="6"/>
       <c r="G46" s="5"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F47" s="6"/>
       <c r="G47" s="5"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F48" s="6"/>
       <c r="G48" s="5"/>
     </row>
-    <row r="49" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F49" s="6"/>
       <c r="G49" s="5"/>
     </row>
-    <row r="50" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F50" s="6"/>
       <c r="G50" s="5"/>
     </row>
-    <row r="51" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F51" s="6"/>
       <c r="G51" s="5"/>
     </row>
-    <row r="52" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F52" s="6"/>
       <c r="G52" s="5"/>
     </row>
-    <row r="53" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F53" s="6"/>
       <c r="G53" s="5"/>
     </row>
-    <row r="54" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F54" s="6"/>
       <c r="G54" s="5"/>
     </row>
-    <row r="55" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F55" s="6"/>
       <c r="G55" s="5"/>
     </row>
-    <row r="56" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="6:7" x14ac:dyDescent="0.35">
       <c r="F56" s="6"/>
       <c r="G56" s="5"/>
     </row>
@@ -5782,11 +5260,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>1</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>69850</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>962025</xdr:colOff>
+                    <xdr:colOff>965200</xdr:colOff>
                     <xdr:row>2</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -5804,11 +5282,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>2</xdr:row>
-                    <xdr:rowOff>66675</xdr:rowOff>
+                    <xdr:rowOff>69850</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>962025</xdr:colOff>
+                    <xdr:colOff>965200</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>114300</xdr:rowOff>
                   </to>
@@ -5826,11 +5304,11 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>3</xdr:row>
-                    <xdr:rowOff>104775</xdr:rowOff>
+                    <xdr:rowOff>107950</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>962025</xdr:colOff>
+                    <xdr:colOff>965200</xdr:colOff>
                     <xdr:row>4</xdr:row>
                     <xdr:rowOff>152400</xdr:rowOff>
                   </to>
@@ -5848,13 +5326,13 @@
                     <xdr:col>7</xdr:col>
                     <xdr:colOff>133350</xdr:colOff>
                     <xdr:row>4</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>127000</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>7</xdr:col>
-                    <xdr:colOff>962025</xdr:colOff>
+                    <xdr:colOff>965200</xdr:colOff>
                     <xdr:row>5</xdr:row>
-                    <xdr:rowOff>123825</xdr:rowOff>
+                    <xdr:rowOff>127000</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -5874,18 +5352,20 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="17.73046875" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>45</v>
       </c>
@@ -5895,7 +5375,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -5909,7 +5389,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5923,7 +5403,7 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -5935,7 +5415,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -5949,7 +5429,7 @@
         <v>29906</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5963,7 +5443,7 @@
         <v>92658</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B9" s="6">
         <v>40787</v>
       </c>
@@ -5974,7 +5454,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -5988,7 +5468,7 @@
         <v>34433</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6002,7 +5482,7 @@
         <v>134468</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -6014,25 +5494,61 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" s="46"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="46"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="46">
+        <f>COUNT(A5:A12)</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="46">
+        <f t="shared" ref="B13:D13" si="0">COUNT(B5:B12)</f>
+        <v>7</v>
+      </c>
+      <c r="C13" s="46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D13" s="46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="46">
+        <f>COUNTA(A5:A12)</f>
+        <v>7</v>
+      </c>
+      <c r="B14" s="46">
+        <f t="shared" ref="B14:D14" si="1">COUNTA(B5:B12)</f>
+        <v>8</v>
+      </c>
+      <c r="C14" s="46">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D14" s="46">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="46">
+        <f>COUNTBLANK(A5:A12)</f>
+        <v>1</v>
+      </c>
+      <c r="B15" s="46">
+        <f t="shared" ref="B15:D15" si="2">COUNTBLANK(B5:B12)</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="46">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -6044,25 +5560,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE837A70-63D1-421E-ADBA-E3D5ACE4CF9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE837A70-63D1-421E-ADBA-E3D5ACE4CF9F}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
+    <sheetView topLeftCell="A3" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="5.86328125" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>47</v>
       </c>
@@ -6072,7 +5591,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -6086,7 +5605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -6103,7 +5622,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -6116,9 +5635,15 @@
       <c r="D6" s="5">
         <v>0</v>
       </c>
-      <c r="G6" s="46"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G6" s="46">
+        <f>COUNTIF(B5:B35,H6)</f>
+        <v>3</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6131,8 +5656,12 @@
       <c r="D7" s="5">
         <v>29906</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G7">
+        <f>COUNTIFS(B5:B35,H6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -6146,7 +5675,7 @@
         <v>92658</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -6163,7 +5692,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6177,10 +5706,10 @@
         <v>34433</v>
       </c>
       <c r="G10" s="23">
-        <v>40787</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+        <v>40552</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6193,9 +5722,12 @@
       <c r="D11" s="5">
         <v>134468</v>
       </c>
-      <c r="G11" s="46"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G11" s="46">
+        <f>COUNTIF(B5:B35,G10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -6209,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -6223,7 +5755,7 @@
         <v>82500</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -6237,12 +5769,12 @@
         <v>15086</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="6">
-        <v>40817</v>
+      <c r="B15" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C15" s="5">
         <v>80000</v>
@@ -6254,7 +5786,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -6274,7 +5806,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -6294,7 +5826,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -6308,7 +5840,7 @@
         <v>130000</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -6323,7 +5855,7 @@
       </c>
       <c r="G19" s="46"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -6337,7 +5869,7 @@
         <v>67620</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -6351,7 +5883,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -6365,7 +5897,7 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -6379,7 +5911,7 @@
         <v>65588</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -6393,7 +5925,7 @@
         <v>45906</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -6407,7 +5939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -6421,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -6435,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -6449,7 +5981,7 @@
         <v>41232</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -6463,7 +5995,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -6477,7 +6009,7 @@
         <v>59140</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -6491,7 +6023,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -6505,7 +6037,7 @@
         <v>38402</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -6519,7 +6051,7 @@
         <v>93775</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -6533,7 +6065,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -6550,7 +6082,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6563,16 +6094,16 @@
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="25.3984375" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="16.81640625" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="25.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>104</v>
       </c>
@@ -6582,7 +6113,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -6596,7 +6127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -6610,7 +6141,7 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -6622,7 +6153,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -6636,7 +6167,7 @@
         <v>29906</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -6650,7 +6181,7 @@
         <v>92658</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -6664,7 +6195,7 @@
         <v>127000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6678,7 +6209,7 @@
         <v>34433</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6692,7 +6223,7 @@
         <v>134468</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -6704,15 +6235,15 @@
       </c>
       <c r="D12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="C14" s="50"/>
       <c r="D14" s="50"/>
     </row>
-    <row r="17" spans="1:4" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="28" t="s">
         <v>106</v>
       </c>
@@ -6723,7 +6254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -6737,7 +6268,7 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -6751,11 +6282,11 @@
         <v>65588</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C21" s="50"/>
       <c r="D21" s="50"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C22" s="50"/>
       <c r="D22" s="50"/>
     </row>
@@ -6773,20 +6304,20 @@
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="12.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.36328125" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="7.06640625" customWidth="1"/>
+    <col min="6" max="6" width="7.08984375" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>101</v>
       </c>
@@ -6796,7 +6327,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -6813,7 +6344,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>54</v>
       </c>
@@ -6831,7 +6362,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>54</v>
       </c>
@@ -6847,7 +6378,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="48"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>54</v>
       </c>
@@ -6862,7 +6393,7 @@
       </c>
       <c r="F7" s="15"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -6877,7 +6408,7 @@
       </c>
       <c r="F8" s="15"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -6895,7 +6426,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -6916,7 +6447,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -6937,7 +6468,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -6952,7 +6483,7 @@
       </c>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>54</v>
       </c>
@@ -6968,7 +6499,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="48"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -6983,7 +6514,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -7001,7 +6532,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -7022,7 +6553,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>54</v>
       </c>
@@ -7043,7 +6574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>54</v>
       </c>
@@ -7058,7 +6589,7 @@
       </c>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>54</v>
       </c>
@@ -7074,7 +6605,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="48"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -7089,7 +6620,7 @@
       </c>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -7104,7 +6635,7 @@
       </c>
       <c r="F21" s="15"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -7119,7 +6650,7 @@
       </c>
       <c r="F22" s="15"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>54</v>
       </c>
@@ -7134,7 +6665,7 @@
       </c>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -7149,7 +6680,7 @@
       </c>
       <c r="F24" s="15"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -7164,7 +6695,7 @@
       </c>
       <c r="F25" s="15"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -7179,7 +6710,7 @@
       </c>
       <c r="F26" s="15"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -7194,7 +6725,7 @@
       </c>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -7209,7 +6740,7 @@
       </c>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -7224,7 +6755,7 @@
       </c>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -7239,7 +6770,7 @@
       </c>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -7254,7 +6785,7 @@
       </c>
       <c r="F31" s="15"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -7269,7 +6800,7 @@
       </c>
       <c r="F32" s="15"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -7284,7 +6815,7 @@
       </c>
       <c r="F33" s="15"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>54</v>
       </c>
@@ -7299,7 +6830,7 @@
       </c>
       <c r="F34" s="15"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -7314,7 +6845,7 @@
       </c>
       <c r="F35" s="15"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>54</v>
       </c>
@@ -7330,7 +6861,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="15"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>54</v>
       </c>
@@ -7346,7 +6877,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="15"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>54</v>
       </c>
@@ -7360,7 +6891,7 @@
         <v>7148</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>54</v>
       </c>
@@ -7374,7 +6905,7 @@
         <v>8042</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>54</v>
       </c>
@@ -7388,7 +6919,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -7402,7 +6933,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -7416,7 +6947,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -7430,7 +6961,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>54</v>
       </c>
@@ -7444,7 +6975,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -7458,7 +6989,7 @@
         <v>4468</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -7472,7 +7003,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>54</v>
       </c>
@@ -7486,7 +7017,7 @@
         <v>5108</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>54</v>
       </c>
@@ -7500,7 +7031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>54</v>
       </c>
@@ -7514,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>54</v>
       </c>
@@ -7528,7 +7059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>54</v>
       </c>
@@ -7542,7 +7073,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -7556,7 +7087,7 @@
         <v>2554</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>54</v>
       </c>
@@ -7570,7 +7101,7 @@
         <v>8514</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>54</v>
       </c>
@@ -7584,7 +7115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -7598,7 +7129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -7612,7 +7143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -7626,7 +7157,7 @@
         <v>12771</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -7640,7 +7171,7 @@
         <v>12771</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>71</v>
       </c>
@@ -7654,7 +7185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -7668,7 +7199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -7682,7 +7213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>71</v>
       </c>
@@ -7696,7 +7227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>71</v>
       </c>
@@ -7710,7 +7241,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -7724,7 +7255,7 @@
         <v>2928</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>71</v>
       </c>
@@ -7738,7 +7269,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>71</v>
       </c>
@@ -7752,7 +7283,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>71</v>
       </c>
@@ -7766,7 +7297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>71</v>
       </c>
@@ -7780,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -7794,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>71</v>
       </c>
@@ -7808,7 +7339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>71</v>
       </c>
@@ -7822,7 +7353,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -7836,7 +7367,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -7850,7 +7381,7 @@
         <v>13174</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -7864,7 +7395,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>71</v>
       </c>
@@ -7878,7 +7409,7 @@
         <v>4977</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>71</v>
       </c>
@@ -7892,7 +7423,7 @@
         <v>7612</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>71</v>
       </c>
@@ -7906,7 +7437,7 @@
         <v>6734</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>71</v>
       </c>
@@ -7920,7 +7451,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>71</v>
       </c>
@@ -7934,7 +7465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>71</v>
       </c>
@@ -7948,7 +7479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -7962,7 +7493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>71</v>
       </c>
@@ -7976,7 +7507,7 @@
         <v>6441</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>71</v>
       </c>
@@ -7990,7 +7521,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>71</v>
       </c>
@@ -8004,7 +7535,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>71</v>
       </c>
@@ -8018,7 +7549,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>71</v>
       </c>
@@ -8032,7 +7563,7 @@
         <v>3643</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>71</v>
       </c>
@@ -8046,7 +7577,7 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -8060,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -8074,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>71</v>
       </c>
@@ -8088,7 +7619,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>71</v>
       </c>
@@ -8102,7 +7633,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>71</v>
       </c>
@@ -8116,7 +7647,7 @@
         <v>3188</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>71</v>
       </c>
@@ -8130,7 +7661,7 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>71</v>
       </c>
@@ -8144,7 +7675,7 @@
         <v>4554</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>71</v>
       </c>
@@ -8158,7 +7689,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>71</v>
       </c>
@@ -8172,7 +7703,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>71</v>
       </c>
@@ -8186,7 +7717,7 @@
         <v>10930</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -8200,7 +7731,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>71</v>
       </c>
@@ -8214,7 +7745,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>71</v>
       </c>
@@ -8228,7 +7759,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>71</v>
       </c>
@@ -8242,7 +7773,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>71</v>
       </c>
@@ -8256,7 +7787,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>71</v>
       </c>
@@ -8270,7 +7801,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>71</v>
       </c>
@@ -8284,7 +7815,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>71</v>
       </c>
@@ -8298,7 +7829,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>71</v>
       </c>
@@ -8312,7 +7843,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>71</v>
       </c>
@@ -8326,7 +7857,7 @@
         <v>6148</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>71</v>
       </c>
@@ -8340,7 +7871,7 @@
         <v>7514</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>71</v>
       </c>
@@ -8354,7 +7885,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>71</v>
       </c>
@@ -8368,7 +7899,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>71</v>
       </c>
@@ -8382,7 +7913,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>71</v>
       </c>
@@ -8396,7 +7927,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>71</v>
       </c>
@@ -8410,7 +7941,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>71</v>
       </c>
@@ -8424,7 +7955,7 @@
         <v>2732</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>71</v>
       </c>
@@ -8438,7 +7969,7 @@
         <v>9563</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>71</v>
       </c>
@@ -8452,7 +7983,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>71</v>
       </c>
@@ -8466,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>71</v>
       </c>
@@ -8480,7 +8011,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>71</v>
       </c>
@@ -8494,7 +8025,7 @@
         <v>12979</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>71</v>
       </c>
@@ -8508,7 +8039,7 @@
         <v>5465</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>87</v>
       </c>
@@ -8522,7 +8053,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>87</v>
       </c>
@@ -8536,7 +8067,7 @@
         <v>4104</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>87</v>
       </c>
@@ -8550,7 +8081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>87</v>
       </c>
@@ -8564,7 +8095,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>87</v>
       </c>
@@ -8578,7 +8109,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>87</v>
       </c>
@@ -8592,7 +8123,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>87</v>
       </c>
@@ -8606,7 +8137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>87</v>
       </c>
@@ -8620,7 +8151,7 @@
         <v>10259</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>87</v>
       </c>
@@ -8634,7 +8165,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>87</v>
       </c>
@@ -8648,7 +8179,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>87</v>
       </c>
@@ -8662,7 +8193,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>87</v>
       </c>
@@ -8676,7 +8207,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>87</v>
       </c>
@@ -8690,7 +8221,7 @@
         <v>7181</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>87</v>
       </c>
@@ -8704,7 +8235,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>87</v>
       </c>
@@ -8718,7 +8249,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>87</v>
       </c>
@@ -8732,7 +8263,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>87</v>
       </c>
@@ -8746,7 +8277,7 @@
         <v>5243</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>87</v>
       </c>
@@ -8760,7 +8291,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>87</v>
       </c>
@@ -8774,7 +8305,7 @@
         <v>13109</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>87</v>
       </c>
@@ -8788,7 +8319,7 @@
         <v>12235</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>87</v>
       </c>
@@ -8802,7 +8333,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>87</v>
       </c>
@@ -8816,7 +8347,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>87</v>
       </c>
@@ -8830,7 +8361,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>87</v>
       </c>
@@ -8844,7 +8375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>87</v>
       </c>
@@ -8858,7 +8389,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>87</v>
       </c>
@@ -8872,7 +8403,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>87</v>
       </c>
@@ -8886,7 +8417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>87</v>
       </c>
@@ -8900,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>87</v>
       </c>
@@ -8914,7 +8445,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>87</v>
       </c>
@@ -8928,7 +8459,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>87</v>
       </c>
@@ -8942,7 +8473,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>87</v>
       </c>
@@ -8956,7 +8487,7 @@
         <v>9723</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>87</v>
       </c>
@@ -8970,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>87</v>
       </c>
@@ -8984,7 +8515,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>87</v>
       </c>
@@ -8998,7 +8529,7 @@
         <v>11049</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>87</v>
       </c>
@@ -9012,7 +8543,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>87</v>
       </c>
@@ -9026,7 +8557,7 @@
         <v>13259</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>87</v>
       </c>
@@ -9040,7 +8571,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>87</v>
       </c>
@@ -9054,7 +8585,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>87</v>
       </c>
@@ -9068,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>87</v>
       </c>
@@ -9082,7 +8613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>87</v>
       </c>
@@ -9096,7 +8627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>87</v>
       </c>
@@ -9110,7 +8641,7 @@
         <v>4598</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>87</v>
       </c>
@@ -9124,7 +8655,7 @@
         <v>6687</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>87</v>
       </c>
@@ -9138,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>87</v>
       </c>
@@ -9152,7 +8683,7 @@
         <v>2508</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>87</v>
       </c>
@@ -9182,17 +8713,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="2" width="10.19921875" customWidth="1"/>
-    <col min="3" max="3" width="13.265625" customWidth="1"/>
-    <col min="4" max="4" width="10.59765625" customWidth="1"/>
-    <col min="5" max="5" width="5.86328125" customWidth="1"/>
-    <col min="8" max="8" width="11.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" customWidth="1"/>
+    <col min="5" max="5" width="5.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>199</v>
       </c>
@@ -9202,7 +8733,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>41</v>
       </c>
@@ -9216,7 +8747,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -9233,7 +8764,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -9248,7 +8779,7 @@
       </c>
       <c r="G6" s="50"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -9262,7 +8793,7 @@
         <v>29906</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -9276,7 +8807,7 @@
         <v>92658</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -9293,7 +8824,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -9308,7 +8839,7 @@
       </c>
       <c r="G10" s="50"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -9322,7 +8853,7 @@
         <v>134468</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -9336,7 +8867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -9353,7 +8884,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -9373,7 +8904,7 @@
         <v>40544</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -9388,7 +8919,7 @@
       </c>
       <c r="G15" s="50"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -9402,7 +8933,7 @@
         <v>185000</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -9419,7 +8950,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -9434,7 +8965,7 @@
       </c>
       <c r="G18" s="50"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>29</v>
       </c>
@@ -9448,7 +8979,7 @@
         <v>94170</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>11</v>
       </c>
@@ -9462,7 +8993,7 @@
         <v>67620</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -9476,7 +9007,7 @@
         <v>45558</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -9490,7 +9021,7 @@
         <v>57400</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -9504,7 +9035,7 @@
         <v>65588</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>32</v>
       </c>
@@ -9518,7 +9049,7 @@
         <v>45906</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -9532,7 +9063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -9546,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -9560,7 +9091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -9574,7 +9105,7 @@
         <v>41232</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -9588,7 +9119,7 @@
         <v>116000</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>36</v>
       </c>
@@ -9602,7 +9133,7 @@
         <v>59140</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -9616,7 +9147,7 @@
         <v>225000</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -9630,7 +9161,7 @@
         <v>38402</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>38</v>
       </c>
@@ -9644,7 +9175,7 @@
         <v>93775</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>39</v>
       </c>
@@ -9658,7 +9189,7 @@
         <v>83000</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>40</v>
       </c>
@@ -9689,13 +9220,13 @@
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="9" width="13.3984375" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="9" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>200</v>
       </c>
@@ -9705,7 +9236,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="29.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="20" t="s">
         <v>111</v>
       </c>
@@ -9734,8 +9265,8 @@
         <v>116</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="55">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="28">
         <v>1.56</v>
       </c>
       <c r="B5" s="30"/>
@@ -9747,7 +9278,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="28">
         <v>1.5</v>
       </c>
@@ -9760,7 +9291,7 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="28">
         <v>1.45</v>
       </c>
@@ -9773,7 +9304,7 @@
       <c r="H7" s="30"/>
       <c r="I7" s="30"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="28">
         <v>4852.3653999999997</v>
       </c>
@@ -9786,7 +9317,7 @@
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="28">
         <v>122.25</v>
       </c>
@@ -9814,19 +9345,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.3984375" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="3" max="3" width="14.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" customWidth="1"/>
-    <col min="5" max="5" width="20.3984375" customWidth="1"/>
-    <col min="6" max="6" width="19.1328125" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.36328125" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="20.36328125" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>130</v>
       </c>
@@ -9835,7 +9366,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="32" t="s">
         <v>124</v>
       </c>
@@ -9843,11 +9374,11 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="35"/>
     </row>
-    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="20" t="s">
         <v>123</v>
       </c>
@@ -9867,43 +9398,43 @@
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>38961</v>
       </c>
       <c r="E8" s="6"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>40148</v>
       </c>
       <c r="E9" s="6"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>43497</v>
       </c>
       <c r="E10" s="6"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>40374</v>
       </c>
       <c r="E11" s="6"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>39828</v>
       </c>
       <c r="E12" s="6"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>43367</v>
       </c>
       <c r="E13" s="6"/>
     </row>
-    <row r="16" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="20" t="s">
         <v>123</v>
       </c>
@@ -9917,7 +9448,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>38961</v>
       </c>
@@ -9926,7 +9457,7 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>40148</v>
       </c>
@@ -9935,7 +9466,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>43497</v>
       </c>
@@ -9944,7 +9475,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>40374</v>
       </c>
@@ -9953,7 +9484,7 @@
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>39828</v>
       </c>
@@ -9962,7 +9493,7 @@
       <c r="D21" s="6"/>
       <c r="E21" s="6"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>43367</v>
       </c>
@@ -9985,19 +9516,19 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.59765625" customWidth="1"/>
-    <col min="2" max="2" width="19.73046875" customWidth="1"/>
-    <col min="3" max="3" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.1328125" customWidth="1"/>
-    <col min="5" max="5" width="24.1328125" customWidth="1"/>
-    <col min="6" max="6" width="19.1328125" customWidth="1"/>
-    <col min="7" max="7" width="9.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6328125" customWidth="1"/>
+    <col min="2" max="2" width="19.7265625" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" customWidth="1"/>
+    <col min="5" max="5" width="24.08984375" customWidth="1"/>
+    <col min="6" max="6" width="19.08984375" customWidth="1"/>
+    <col min="7" max="7" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>182</v>
       </c>
@@ -10006,7 +9537,7 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="21" t="s">
         <v>140</v>
       </c>
@@ -10017,7 +9548,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="36">
         <v>0.375</v>
       </c>
@@ -10031,7 +9562,7 @@
       </c>
       <c r="E4" s="38"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="36">
         <v>0.5</v>
       </c>
@@ -10045,7 +9576,7 @@
       </c>
       <c r="E5" s="39"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="36">
         <v>0.75</v>
       </c>
@@ -10059,7 +9590,7 @@
       </c>
       <c r="E6" s="39"/>
     </row>
-    <row r="11" spans="1:5" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="21" t="s">
         <v>122</v>
       </c>
@@ -10076,7 +9607,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>133</v>
       </c>
@@ -10086,10 +9617,8 @@
       <c r="C12" s="36">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>134</v>
       </c>
@@ -10099,10 +9628,8 @@
       <c r="C13" s="36">
         <v>0.76041666666666663</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>135</v>
       </c>
@@ -10112,10 +9639,8 @@
       <c r="C14" s="36">
         <v>0.75</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -10125,10 +9650,8 @@
       <c r="C15" s="36">
         <v>0.73263888888888884</v>
       </c>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>137</v>
       </c>
@@ -10138,12 +9661,10 @@
       <c r="C16" s="36">
         <v>0.75</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.45">
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
